--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="npc" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="npc_weights" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="tribe_weights" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="tribe" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="personality" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="voice" sheetId="5" state="visible" r:id="rId5"/>
